--- a/assets/excel/2021_5-1-1.xlsx
+++ b/assets/excel/2021_5-1-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Hannover\Dez15-Uebergreifende-Analysen\Projekte\Integrationsmonitoring_2021\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B651E1D-DE29-4D11-B66B-4E43519AA814}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ACB7BB6-76C5-4DC0-8E9C-C0339A1126B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14010" xr2:uid="{F2F2BFBB-2123-4078-9F45-2FAEA1EAACE2}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="32">
   <si>
     <t>Migration und Teilhabe in Niedersachsen - Integrationsmonitoring 2021</t>
   </si>
@@ -148,7 +148,10 @@
     </r>
   </si>
   <si>
-    <t>4) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes: https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Haushalte-Familien/Methoden/mikrozensus-2020.html</t>
+    <t>4) Die Ergebnisse des Mikrozensus 2020 sind unter anderem aufgrund methodischer Effekte im Rahmen einer Neugestaltung der Erhebung sowie insbesondere aufgrund der Folgen der Corona-Pandemie in Ihrer Datenqualität eingeschränkt. Auf die Verwendung dieser Ergebnisse wird daher verzichtet. Weitere Informationen zur methodischen Neugestaltung des Mikrozensus ab 2020 und zu den Auswirkungen der Neugestaltung und der Corona-Krise auf die Ergebnisse des Jahres 2020 finden Sie auf der Informationsseite des Statistischen Bundesamtes:</t>
+  </si>
+  <si>
+    <t>https://www.destatis.de/DE/Themen/Gesellschaft-Umwelt/Bevoelkerung/Haushalte-Familien/Methoden/mikrozensus-2020.html</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -532,6 +535,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -849,10 +853,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C09ED6D-CD79-470E-91AE-28D4A28E611D}">
   <sheetPr codeName="Tabelle1"/>
-  <dimension ref="B1:F132"/>
+  <dimension ref="B1:F133"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A100" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B125" sqref="B125:F125"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A118" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B124" sqref="B124:F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,40 +2853,47 @@
       <c r="F125" s="27"/>
     </row>
     <row r="126" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B126" s="15"/>
+      <c r="B126" s="43" t="s">
+        <v>31</v>
+      </c>
       <c r="D126" s="14"/>
       <c r="E126" s="14"/>
     </row>
     <row r="127" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="16" t="s">
+      <c r="B127" s="15"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+    </row>
+    <row r="128" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B128" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C127" s="16"/>
-    </row>
-    <row r="128" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C129" s="16"/>
-    </row>
+      <c r="C128" s="16"/>
+    </row>
+    <row r="129" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="130" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B130" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C130" s="16"/>
     </row>
     <row r="131" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B131" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C131" s="16"/>
+    </row>
+    <row r="132" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B132" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C131" s="16"/>
-    </row>
-    <row r="132" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B132" s="17" t="s">
+      <c r="C132" s="16"/>
+    </row>
+    <row r="133" spans="2:3" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B133" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="16"/>
+      <c r="C133" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2896,7 +2907,8 @@
     <mergeCell ref="B123:F123"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B132" r:id="rId1" xr:uid="{5619BB1D-7346-4B62-96D2-B02C209D90E5}"/>
+    <hyperlink ref="B133" r:id="rId1" xr:uid="{5619BB1D-7346-4B62-96D2-B02C209D90E5}"/>
+    <hyperlink ref="B126" r:id="rId2" xr:uid="{1D40DC23-E520-4895-81E5-B1EAC791CA08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
